--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -632,6 +632,26 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
         <v/>
       </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -700,6 +720,26 @@
       </c>
       <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx; "A 32298-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -629,27 +629,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx"; "A 32298-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "A 32298-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -648,9 +648,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -738,9 +739,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "A 32298-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,33 +625,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx, "A 30779-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -664,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,33 +715,32 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx, "A 32298-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx"; "A 32298-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx", "A 32298-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -755,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -812,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -869,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -926,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1050,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1107,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1164,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1221,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1278,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1402,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1464,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1521,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1578,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1635,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1692,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1749,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1806,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1863,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1920,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1977,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2034,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2091,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2148,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3350,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3407,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3464,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3521,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3578,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3635,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3692,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3749,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3806,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3863,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3920,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3977,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4034,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4091,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4495,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4552,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4609,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4666,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4723,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4780,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4837,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4894,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4951,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5008,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5065,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5122,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5179,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5236,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5293,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5350,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5407,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5464,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5521,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5578,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5635,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5692,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5749,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5806,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5863,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5920,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5977,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6034,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6091,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6148,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6205,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6262,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6319,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6376,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6433,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6490,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6547,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6604,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6666,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6728,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx, "A 30779-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx, "A 32298-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="T3">

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/artfynd/A 32298-2023.xlsx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/kartor/A 32298-2023.png", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/kartor/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/knärot/A 32298-2023.png", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/knärot/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomål/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomål/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomålsmail/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsyn/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsyn/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsynsmail/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023 artfynd.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023 karta.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023 karta knärot.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 fsc-klagomål.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 fsc-klagomål mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023 tillsynsbegäran.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/ti,llsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/artfynd/A 32298-2023.xlsx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/artfynd/A 32298-2023 artfynd.xlsx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/kartor/A 32298-2023.png", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/kartor/A 32298-2023 karta.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/knärot/A 32298-2023.png", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/knärot/A 32298-2023 karta knärot.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomål/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomål/A 32298-2023 fsc-klagomål.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomålsmail/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomålsmail/A 32298-2023 fsc-klagomål mail.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsyn/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsyn/A 32298-2023 tillsynsbegäran.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsynsmail/A 32298-2023.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/ti,llsynsmail/A 32298-2023 tillsynsbegäran mail.docx", "A 32298-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -637,11 +637,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 fsc-klagomål.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 FSC-klagomål.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 fsc-klagomål mail.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 FSC-klagomål mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -649,7 +649,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/ti,llsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -727,11 +727,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomål/A 32298-2023 fsc-klagomål.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomål/A 32298-2023 FSC-klagomål.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomålsmail/A 32298-2023 fsc-klagomål mail.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/klagomålsmail/A 32298-2023 FSC-klagomål mail.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -739,7 +739,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/ti,llsynsmail/A 32298-2023 tillsynsbegäran mail.docx", "A 32298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0861/tillsynsmail/A 32298-2023 tillsynsbegäran mail.docx", "A 32298-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
+++ b/Logging_KALMAR_LAN/Översikt KALMAR LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45113</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45113</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>45118</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>45118</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45126</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>45126</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45127</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>45127</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45127</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45127</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45128</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45128</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>45131</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45131</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>45132</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>45132</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45132</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45132</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>45133</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45133</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
